--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:20:02+00:00</t>
+    <t>2023-03-06T10:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:20:50+00:00</t>
+    <t>2023-03-06T10:21:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:21:46+00:00</t>
+    <t>2023-03-07T14:51:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T14:51:30+00:00</t>
+    <t>2023-03-08T07:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T07:25:49+00:00</t>
+    <t>2023-03-08T07:58:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3630" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3630" uniqueCount="552">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T07:58:39+00:00</t>
+    <t>2023-03-09T09:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -599,7 +599,7 @@
     <t>HealthcareService.extension</t>
   </si>
   <si>
-    <t>3</t>
+    <t>2</t>
   </si>
   <si>
     <t>Extension</t>
@@ -609,6 +609,55 @@
   </si>
   <si>
     <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>HealthcareService.extension:ror-territorial-division</t>
+  </si>
+  <si>
+    <t>ror-territorial-division</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-territorial-division}
+</t>
+  </si>
+  <si>
+    <t>zoneIntervention (OffreOperationnelle) : Périmètre géographique dans lequel habitent les personnes pouvant être prises en charge pour la prestation décrite</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR qui correspond au périmètre géographique dans lequel habitent les personnes pouvant être prises en charge pour la prestation décrite. 
+Cela inclut notamment les divisions territoriales dans lesquelles les professionnels se déplacent.</t>
+  </si>
+  <si>
+    <t>HealthcareService.extension:ror-healthcareservice-sensitive-unit</t>
+  </si>
+  <si>
+    <t>ror-healthcareservice-sensitive-unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-healthcareservice-sensitive-unit}
+</t>
+  </si>
+  <si>
+    <t>uniteSensible (OffreOperationnelle) : Permet de signaler que toutes les informations de description d'une offre sont confidentielles</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR pour signaler que toutes les informations de description d'une offre sont confidentielles car elles présentent un risque d'utilisation à des fins malveillantes.</t>
+  </si>
+  <si>
+    <t>HealthcareService.extension:ror-healthcareservice-no-consent-habilitation</t>
+  </si>
+  <si>
+    <t>ror-healthcareservice-no-consent-habilitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-healthcareservice-no-consent-habilitation}
+</t>
+  </si>
+  <si>
+    <t>habilitationAuxSoinsSansConsentement (OffreOperationnelle) : permet d'identifier les offres pour lesquelles un établissement est autorisé à prendre en charge des patients sans leur consentement</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR qui permet d'identifier les offres pour lesquelles un établissement est autorisé par le directeur général de l’ARS après avis du préfet, à prendre en charge des patients sans leur consentement.</t>
   </si>
   <si>
     <t>HealthcareService.extension:ror-healthcareservice-psychiatric-sector</t>
@@ -621,20 +670,23 @@
 </t>
   </si>
   <si>
+    <t>secteurPsychiatrique (OffreOperationnelle) : aire géographique à laquelle sont rattachées des structures de relais et de soins qui prennent en charge des patients résidants sur ce secteur</t>
+  </si>
+  <si>
     <t>Extension créée dans le cadre du ROR qui correspond à une aire géographique à laquelle sont rattachées des structures de relais et de soins qui prennent en charge des patients résidants sur ce secteur.</t>
   </si>
   <si>
-    <t>HealthcareService.extension:ror-healthcareservice-no-consent-habilitation</t>
-  </si>
-  <si>
-    <t>ror-healthcareservice-no-consent-habilitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-healthcareservice-no-consent-habilitation}
+    <t>HealthcareService.extension:RORCalculatedDistance</t>
+  </si>
+  <si>
+    <t>RORCalculatedDistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-calculated-distance}
 </t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR qui permet d'identifier les offres pour lesquelles un établissement est autorisé par le directeur général de l’ARS après avis du préfet, à prendre en charge des patients sans leur consentement.</t>
+    <t>Extension créée dans le cadre du ROR</t>
   </si>
   <si>
     <t>HealthcareService.extension:ror-healthcareservice-patient-type</t>
@@ -647,34 +699,10 @@
 </t>
   </si>
   <si>
+    <t>publicPrisEnCharge (Patientele) : Ensemble de personnes qui présentent des caractéristiques psychologiques, intellectuelles, physiques, psycho-motrices, comportementales leur permettant de bénéficier de la prestation décrite</t>
+  </si>
+  <si>
     <t>Extension créée dans le cadre du ROR pour décrire un ensemble de personnes qui répondent à des critères leur permettant de  bénéficier de la prestation décrite</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension:ror-healthcareservice-sensitive-unit</t>
-  </si>
-  <si>
-    <t>ror-healthcareservice-sensitive-unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-healthcareservice-sensitive-unit}
-</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre du ROR pour signaler que toutes les informations de description d'une offre sont confidentielles car elles présentent un risque d'utilisation à des fins malveillantes.</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension:ror-territorial-division</t>
-  </si>
-  <si>
-    <t>ror-territorial-division</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-territorial-division}
-</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre du ROR qui correspond au périmètre géographique dans lequel habitent les personnes pouvant être prises en charge pour la prestation décrite. 
-Cela inclut notamment les divisions territoriales dans lesquelles les professionnels se déplacent.</t>
   </si>
   <si>
     <t>HealthcareService.extension:ror-healthcareservice-contact</t>
@@ -687,20 +715,10 @@
 </t>
   </si>
   <si>
+    <t>contact (OffreOperationnelle) : Personne ou service qui agit comme point de contact auprès d'une autre personne ou d'un autre service</t>
+  </si>
+  <si>
     <t>Extension créée dans le cadre du ROR pour décrire la personne ou le service qui agit comme point de contact de l'offre.</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension:RORCalculatedDistance</t>
-  </si>
-  <si>
-    <t>RORCalculatedDistance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-calculated-distance}
-</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre du ROR</t>
   </si>
   <si>
     <t>HealthcareService.modifierExtension</t>
@@ -726,7 +744,7 @@
 </t>
   </si>
   <si>
-    <t>External identifiers for this item</t>
+    <t>identifiantOffre (OffreOperationnelle) : Identifiant de l'offre, unique et persistant au niveau national</t>
   </si>
   <si>
     <t>External identifiers for this item.</t>
@@ -797,7 +815,7 @@
 </t>
   </si>
   <si>
-    <t>Broad category of service being performed or delivered</t>
+    <t>typeOffre (OffreOperationnelle) : Permet de distinguer les offres et de les classer en fonction de leur nature particulière</t>
   </si>
   <si>
     <t>Identifies the broad category of service being performed or delivered.</t>
@@ -822,7 +840,7 @@
 </t>
   </si>
   <si>
-    <t>Type of service that may be delivered or performed</t>
+    <t>champActivite (OffreOperationnelle) : domaine dans lequel s'inscrit l'offre</t>
   </si>
   <si>
     <t>The specific type of service that may be delivered or performed.</t>
@@ -862,6 +880,9 @@
     <t>operationalActivity</t>
   </si>
   <si>
+    <t>activiteOperationnelle (ActiviteOperationnelle) : ensemble cohérent d’actions et de pratiques mises en œuvre pour répondre aux besoins en Santé de la personne</t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J17-ActiviteOperationnelle-ROR/FHIR/JDV-J17-ActiviteOperationnelle-ROR</t>
   </si>
   <si>
@@ -869,6 +890,9 @@
   </si>
   <si>
     <t>operationalActivityFamily</t>
+  </si>
+  <si>
+    <t>familleActiviteOperationnelle (ActiviteOperationnelle) : regroupement cohérent d’activités délivrées dans le cadre d'une prestation, répondant à un besoin de la personne</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J51-FamilleActiviteOperationnelle-ROR/FHIR/JDV-J51-FamilleActiviteOperationnelle-ROR</t>
@@ -899,7 +923,7 @@
     <t>HealthcareService.name</t>
   </si>
   <si>
-    <t>Description of service as presented to a consumer while searching</t>
+    <t>nomOffre (OffreOpérationnelle) : Dénomination sous laquelle l'offre est identifiée par le porteur d'offre</t>
   </si>
   <si>
     <t>Further description of the service as it would be presented to a consumer while searching.</t>
@@ -975,7 +999,7 @@
 </t>
   </si>
   <si>
-    <t>Contacts related to the healthcare service</t>
+    <t>boiteLettreMSS (OffreOperationnelle) : Boîte(s) aux lettres du service de messagerie sécurisée de santé (MSS) rattachée(s) à l’offre opérationnelle</t>
   </si>
   <si>
     <t>List of contacts related to this specific healthcare service.</t>
@@ -997,7 +1021,20 @@
     <t>HealthcareService.telecom.extension</t>
   </si>
   <si>
-    <t>2</t>
+    <t>HealthcareService.telecom.extension:ror-telecom-communication-channel</t>
+  </si>
+  <si>
+    <t>ror-telecom-communication-channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-communication-channel}
+</t>
+  </si>
+  <si>
+    <t>canal (Telecommunication) : Code spécifiant le canal ou la manière dont s'établit la communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension créée dans le cadre du ROR spécifiant le canal ou la manière dont s'établit la communication </t>
   </si>
   <si>
     <t>HealthcareService.telecom.extension:ror-telecom-usage</t>
@@ -1010,6 +1047,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">utilisation (Telecommunication) : Utilisation du canal de communication </t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension créée dans le cadre du ROR qui précise l'utilisation du canal de communication </t>
   </si>
   <si>
@@ -1023,20 +1063,10 @@
 </t>
   </si>
   <si>
+    <t>niveauConfidentialite (Telecommunication) : Niveau de restriction de l'accès aux attributs de la classe Télécommunication</t>
+  </si>
+  <si>
     <t>Extension créée dans le cadre du ROR qui permet de définir le niveau de restriction de l'accès aux attributs de la classe Télécommunication.</t>
-  </si>
-  <si>
-    <t>HealthcareService.telecom.extension:ror-telecom-communication-channel</t>
-  </si>
-  <si>
-    <t>ror-telecom-communication-channel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-communication-channel}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension créée dans le cadre du ROR spécifiant le canal ou la manière dont s'établit la communication </t>
   </si>
   <si>
     <t>HealthcareService.telecom.system</t>
@@ -1067,7 +1097,7 @@
     <t>HealthcareService.telecom.value</t>
   </si>
   <si>
-    <t>The actual contact point details</t>
+    <t>adresseTelecom (Telecommunication) : Valeur de l'adresse de télécommunication dans le format induit par le canal de communication</t>
   </si>
   <si>
     <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
@@ -1290,12 +1320,27 @@
     <t>A custom attribute that could be provided at a service (e.g. Wheelchair accessibiliy).</t>
   </si>
   <si>
+    <t>HealthcareService.characteristic:receptionType</t>
+  </si>
+  <si>
+    <t>receptionType</t>
+  </si>
+  <si>
+    <t>temporaliteAccueil (OffreOperationnelle) : Précision sur le mode de prise en charge</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J30-TemporaliteAccueil-ROR/FHIR/JDV-J30-TemporaliteAccueil-ROR</t>
+  </si>
+  <si>
     <t>HealthcareService.characteristic:careMode</t>
   </si>
   <si>
     <t>careMode</t>
   </si>
   <si>
+    <t>modePriseEnCharge (OffreOperationnelle) : Caractérise l'hébergement ainsi que le niveau de technicité et d'intensité des soins</t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J19-ModePriseEnCharge-ROR/FHIR/JDV-J19-ModePriseEnCharge-ROR</t>
   </si>
   <si>
@@ -1305,6 +1350,9 @@
     <t>receptionModality</t>
   </si>
   <si>
+    <t>modaliteAccueil (OffreOperationnelle) : Permet de préciser le mode de prise en charge géographiquement</t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J226-ModaliteAccueil-ROR/FHIR/JDV-J226-ModaliteAccueil-ROR</t>
   </si>
   <si>
@@ -1314,16 +1362,31 @@
     <t>managementType</t>
   </si>
   <si>
+    <t>modeGestion (OffreOperationnelle) : Mode d’intervention des aides à domicile en fonction de la nature de la relation contractuelle</t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J26-ModeGestion-ROR/FHIR/JDV-J26-ModeGestion-ROR</t>
   </si>
   <si>
-    <t>HealthcareService.characteristic:receptionType</t>
-  </si>
-  <si>
-    <t>receptionType</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J30-TemporaliteAccueil-ROR/FHIR/JDV-J30-TemporaliteAccueil-ROR</t>
+    <t>HealthcareService.characteristic:specificAct</t>
+  </si>
+  <si>
+    <t>specificAct</t>
+  </si>
+  <si>
+    <t>acteSpecifique (OffreOperationnelle) : Action menée par un ou plusieurs acteur(s) de santé dans le cadre d’une activité</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J16-ActeSpecifique-ROR/FHIR/JDV-J16-ActeSpecifique-ROR</t>
+  </si>
+  <si>
+    <t>HealthcareService.characteristic:outsideOfficeAct</t>
+  </si>
+  <si>
+    <t>outsideOfficeAct</t>
+  </si>
+  <si>
+    <t>acteRealiseHorsCabinet (OffreOperationnelle) : Permet de décrire l’offre de santé des médecins libéraux réalisée en dehors du cabinet, au sein d’un établissement</t>
   </si>
   <si>
     <t>HealthcareService.characteristic:takingCareSpeciality</t>
@@ -1332,6 +1395,9 @@
     <t>takingCareSpeciality</t>
   </si>
   <si>
+    <t>specialisationPriseEnCharge (OffreOperationnelle) : Regroupement de troubles, de pathologies ou de déficiences qui nécessitent la mobilisation d'expertises, de compétences et/ou d'équipements spécifiques</t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J35-SpecialisationDePriseEnCharge-ROR/FHIR/JDV-J35-SpecialisationDePriseEnCharge-ROR</t>
   </si>
   <si>
@@ -1341,24 +1407,21 @@
     <t>annualOpening</t>
   </si>
   <si>
+    <t>ouvertureAnnuelle (OffreOperationnelle) : Nombre de jours maximum dans l’année au cours desquels la prestation peut être proposée par l'établissement</t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J28-OuvertureAnnuelle-ROR/FHIR/JDV-J28-OuvertureAnnuelle-ROR</t>
   </si>
   <si>
-    <t>HealthcareService.characteristic:specificAct</t>
-  </si>
-  <si>
-    <t>specificAct</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J16-ActeSpecifique-ROR/FHIR/JDV-J16-ActeSpecifique-ROR</t>
-  </si>
-  <si>
     <t>HealthcareService.characteristic:ressourceProfession</t>
   </si>
   <si>
     <t>ressourceProfession</t>
   </si>
   <si>
+    <t>professionRessource (OffreOperationnelle) : Traduit la mobilisation de métiers qui constituent un facteur différenciant dans la réalisation de la prestation</t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J186-ProfessionRessource-ROR/FHIR/JDV-J186-ProfessionRessource-ROR</t>
   </si>
   <si>
@@ -1368,6 +1431,9 @@
     <t>specificCompetence</t>
   </si>
   <si>
+    <t>competenceSpecifique (OffreOperationnelle) : Capacité ou connaissance reconnue qui permet ou facilite l’accueil d’une personne</t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J33-CompetenceSpecifique-ROR/FHIR/JDV-J33-CompetenceSpecifique-ROR</t>
   </si>
   <si>
@@ -1377,6 +1443,9 @@
     <t>expertiseLevel</t>
   </si>
   <si>
+    <t xml:space="preserve">niveauExpertise (OffreOperationnelle) : Niveau de ressources humaines et matérielles engagées dans la réalisation de l'offre </t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J227-NiveauExpertise-ROR/FHIR/JDV-J227-NiveauExpertise-ROR</t>
   </si>
   <si>
@@ -1386,15 +1455,12 @@
     <t>temporalityStopService</t>
   </si>
   <si>
+    <t>typeFermeture (OffreOperationnelle) : Temporalité d'arrêt de réalisation de la prestation</t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J185-TypeFermeture-ROR/FHIR/JDV-J185-TypeFermeture-ROR</t>
   </si>
   <si>
-    <t>HealthcareService.characteristic:outsideOfficeAct</t>
-  </si>
-  <si>
-    <t>outsideOfficeAct</t>
-  </si>
-  <si>
     <t>HealthcareService.communication</t>
   </si>
   <si>
@@ -1437,7 +1503,7 @@
     <t>HealthcareService.availableTime</t>
   </si>
   <si>
-    <t>Times the Service Site is available</t>
+    <t>horaire (OffreOperationnelle) : heureDebut + heureFin</t>
   </si>
   <si>
     <t>A collection of times that the Service Site is available.</t>
@@ -1453,6 +1519,22 @@
   </si>
   <si>
     <t>HealthcareService.availableTime.extension</t>
+  </si>
+  <si>
+    <t>HealthcareService.availableTime.extension:ror-available-time-type-of-time</t>
+  </si>
+  <si>
+    <t>ror-available-time-type-of-time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-available-time-type-of-time}
+</t>
+  </si>
+  <si>
+    <t>typePlageHoraire (Horaire) : apporte un contexte à la plage horaire définie par la suite</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR pour apporter un contexte à la plage horaire définie par la suite. Un planning peut être constitué de plusieurs plages horaires du même type ou de type différent.</t>
   </si>
   <si>
     <t>HealthcareService.availableTime.extension:ror-available-time-effective-opening-closing-date</t>
@@ -1465,20 +1547,10 @@
 </t>
   </si>
   <si>
+    <t>debutDateEffective + finDateEffective (Horaire)</t>
+  </si>
+  <si>
     <t>Extension créée dans le cadre du ROR pour décrire le planning d'activité d'un professionnel ou d'une offre.</t>
-  </si>
-  <si>
-    <t>HealthcareService.availableTime.extension:ror-available-time-type-of-time</t>
-  </si>
-  <si>
-    <t>ror-available-time-type-of-time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-available-time-type-of-time}
-</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre du ROR pour apporter un contexte à la plage horaire définie par la suite. Un planning peut être constitué de plusieurs plages horaires du même type ou de type différent.</t>
   </si>
   <si>
     <t>HealthcareService.availableTime.extension:ror-available-time-number-days-of-week</t>
@@ -1491,6 +1563,9 @@
 </t>
   </si>
   <si>
+    <t>jourSemaine (Horaire) : Numéro du jour dans la semaine</t>
+  </si>
+  <si>
     <t>Extension créée dans le cadre du ROR pour indiquer le numéro du jour dans la semaine.</t>
   </si>
   <si>
@@ -1588,6 +1663,9 @@
     <t>closingDate</t>
   </si>
   <si>
+    <t>dateFermeture (OffreOperationnelle) : Date effective à partir de laquelle la prestation n'est plus assurée</t>
+  </si>
+  <si>
     <t>HealthcareService.notAvailable:closingDate.id</t>
   </si>
   <si>
@@ -1607,6 +1685,9 @@
   </si>
   <si>
     <t>previsionalReopeningDate</t>
+  </si>
+  <si>
+    <t>DatePrevisionnelleReouverture (OffreOperationnelle) : date prévisionnelle à partir de laquelle la prestation sera de nouveau assurée</t>
   </si>
   <si>
     <t>HealthcareService.notAvailable:previsionalReopeningDate.id</t>
@@ -3966,10 +4047,10 @@
         <v>194</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4043,20 +4124,20 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>187</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>80</v>
@@ -4071,13 +4152,13 @@
         <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4151,20 +4232,20 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>187</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>80</v>
@@ -4179,13 +4260,13 @@
         <v>72</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4259,20 +4340,20 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>187</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>74</v>
@@ -4287,13 +4368,13 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4367,13 +4448,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>187</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>72</v>
@@ -4383,7 +4464,7 @@
         <v>73</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>72</v>
@@ -4395,13 +4476,13 @@
         <v>72</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>189</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4475,13 +4556,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>187</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>72</v>
@@ -4503,13 +4584,13 @@
         <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4583,13 +4664,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>187</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>72</v>
@@ -4599,7 +4680,7 @@
         <v>73</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>72</v>
@@ -4611,13 +4692,13 @@
         <v>72</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4691,10 +4772,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4720,16 +4801,16 @@
         <v>103</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="N26" t="s" s="2">
         <v>106</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>72</v>
@@ -4778,7 +4859,7 @@
         <v>109</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>73</v>
@@ -4801,10 +4882,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4827,13 +4908,13 @@
         <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4884,7 +4965,7 @@
         <v>72</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>73</v>
@@ -4899,18 +4980,18 @@
         <v>93</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4933,23 +5014,23 @@
         <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q28" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>72</v>
@@ -4994,7 +5075,7 @@
         <v>72</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>73</v>
@@ -5009,18 +5090,18 @@
         <v>93</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5043,16 +5124,16 @@
         <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5102,7 +5183,7 @@
         <v>72</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
@@ -5114,10 +5195,10 @@
         <v>92</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>72</v>
@@ -5125,14 +5206,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5151,16 +5232,16 @@
         <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5190,25 +5271,25 @@
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>73</v>
@@ -5223,22 +5304,22 @@
         <v>93</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5257,16 +5338,16 @@
         <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5296,7 +5377,7 @@
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>72</v>
@@ -5314,7 +5395,7 @@
         <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>73</v>
@@ -5329,7 +5410,7 @@
         <v>93</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>72</v>
@@ -5337,10 +5418,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5363,16 +5444,16 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5401,16 +5482,16 @@
         <v>168</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
@@ -5420,7 +5501,7 @@
         <v>109</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>73</v>
@@ -5435,7 +5516,7 @@
         <v>93</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>72</v>
@@ -5443,13 +5524,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="B33" t="s" s="2">
-        <v>262</v>
-      </c>
       <c r="C33" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>72</v>
@@ -5471,16 +5552,16 @@
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5510,7 +5591,7 @@
       </c>
       <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>72</v>
@@ -5528,7 +5609,7 @@
         <v>72</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>73</v>
@@ -5543,7 +5624,7 @@
         <v>93</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>72</v>
@@ -5551,13 +5632,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>72</v>
@@ -5579,16 +5660,16 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5618,7 +5699,7 @@
       </c>
       <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>72</v>
@@ -5636,7 +5717,7 @@
         <v>72</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>73</v>
@@ -5651,7 +5732,7 @@
         <v>93</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>72</v>
@@ -5659,10 +5740,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5685,16 +5766,16 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5744,7 +5825,7 @@
         <v>72</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>73</v>
@@ -5756,21 +5837,21 @@
         <v>92</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5796,13 +5877,13 @@
         <v>96</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5852,7 +5933,7 @@
         <v>72</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>73</v>
@@ -5867,7 +5948,7 @@
         <v>93</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>72</v>
@@ -5875,10 +5956,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5904,13 +5985,13 @@
         <v>96</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5960,7 +6041,7 @@
         <v>72</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>73</v>
@@ -5975,7 +6056,7 @@
         <v>93</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>72</v>
@@ -5983,10 +6064,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6009,16 +6090,16 @@
         <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6068,7 +6149,7 @@
         <v>72</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>73</v>
@@ -6083,7 +6164,7 @@
         <v>93</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>72</v>
@@ -6091,10 +6172,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6117,16 +6198,16 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6176,7 +6257,7 @@
         <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>73</v>
@@ -6188,10 +6269,10 @@
         <v>92</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>72</v>
@@ -6199,10 +6280,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6213,7 +6294,7 @@
         <v>73</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>72</v>
@@ -6225,16 +6306,16 @@
         <v>72</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6284,7 +6365,7 @@
         <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>73</v>
@@ -6296,10 +6377,10 @@
         <v>92</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>72</v>
@@ -6307,10 +6388,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6413,10 +6494,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6424,7 +6505,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>313</v>
+        <v>188</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>74</v>
@@ -6519,20 +6600,20 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>80</v>
@@ -6547,13 +6628,13 @@
         <v>72</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>189</v>
+        <v>324</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6627,20 +6708,20 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>80</v>
@@ -6655,13 +6736,13 @@
         <v>72</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>189</v>
+        <v>329</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6735,13 +6816,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>72</v>
@@ -6763,13 +6844,13 @@
         <v>72</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>189</v>
+        <v>334</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6843,10 +6924,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6872,13 +6953,13 @@
         <v>164</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6907,10 +6988,10 @@
         <v>156</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>72</v>
@@ -6928,7 +7009,7 @@
         <v>72</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>73</v>
@@ -6937,13 +7018,13 @@
         <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>72</v>
@@ -6951,10 +7032,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6980,16 +7061,16 @@
         <v>96</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>72</v>
@@ -7038,7 +7119,7 @@
         <v>72</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>73</v>
@@ -7053,7 +7134,7 @@
         <v>93</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>72</v>
@@ -7061,10 +7142,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7090,16 +7171,16 @@
         <v>164</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>72</v>
@@ -7127,10 +7208,10 @@
         <v>156</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>72</v>
@@ -7148,7 +7229,7 @@
         <v>72</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>73</v>
@@ -7163,7 +7244,7 @@
         <v>93</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>72</v>
@@ -7171,10 +7252,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7197,16 +7278,16 @@
         <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7256,7 +7337,7 @@
         <v>72</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>73</v>
@@ -7279,10 +7360,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7305,16 +7386,16 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7364,7 +7445,7 @@
         <v>72</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>73</v>
@@ -7376,10 +7457,10 @@
         <v>92</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>72</v>
@@ -7387,10 +7468,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7413,16 +7494,16 @@
         <v>72</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7472,7 +7553,7 @@
         <v>72</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>73</v>
@@ -7484,10 +7565,10 @@
         <v>92</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>72</v>
@@ -7495,10 +7576,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7521,16 +7602,16 @@
         <v>72</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7559,10 +7640,10 @@
         <v>149</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>72</v>
@@ -7580,7 +7661,7 @@
         <v>72</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>73</v>
@@ -7595,7 +7676,7 @@
         <v>93</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>72</v>
@@ -7603,10 +7684,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7629,13 +7710,13 @@
         <v>72</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7686,7 +7767,7 @@
         <v>72</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>73</v>
@@ -7709,10 +7790,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7815,10 +7896,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7923,14 +8004,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -7952,16 +8033,16 @@
         <v>103</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>106</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>72</v>
@@ -8010,7 +8091,7 @@
         <v>72</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>73</v>
@@ -8033,10 +8114,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8059,16 +8140,16 @@
         <v>72</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8097,7 +8178,7 @@
         <v>149</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>72</v>
@@ -8118,7 +8199,7 @@
         <v>72</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>73</v>
@@ -8133,7 +8214,7 @@
         <v>93</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>72</v>
@@ -8141,10 +8222,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8167,16 +8248,16 @@
         <v>72</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8226,7 +8307,7 @@
         <v>72</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>73</v>
@@ -8241,7 +8322,7 @@
         <v>93</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>72</v>
@@ -8249,10 +8330,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8275,16 +8356,16 @@
         <v>72</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8313,10 +8394,10 @@
         <v>149</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>72</v>
@@ -8334,7 +8415,7 @@
         <v>72</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>73</v>
@@ -8349,7 +8430,7 @@
         <v>93</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>72</v>
@@ -8357,10 +8438,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8383,16 +8464,16 @@
         <v>72</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8421,7 +8502,7 @@
         <v>149</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>72</v>
@@ -8440,7 +8521,7 @@
         <v>109</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>73</v>
@@ -8455,7 +8536,7 @@
         <v>93</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>72</v>
@@ -8463,20 +8544,20 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>80</v>
@@ -8491,16 +8572,16 @@
         <v>72</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8530,7 +8611,7 @@
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>72</v>
@@ -8548,7 +8629,7 @@
         <v>72</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>73</v>
@@ -8563,7 +8644,7 @@
         <v>93</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>72</v>
@@ -8571,23 +8652,23 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>72</v>
@@ -8599,16 +8680,16 @@
         <v>72</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8638,25 +8719,25 @@
       </c>
       <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF62" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>73</v>
@@ -8671,7 +8752,7 @@
         <v>93</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>72</v>
@@ -8679,13 +8760,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>72</v>
@@ -8707,16 +8788,16 @@
         <v>72</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -8746,7 +8827,7 @@
       </c>
       <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>72</v>
@@ -8764,7 +8845,7 @@
         <v>72</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>73</v>
@@ -8779,7 +8860,7 @@
         <v>93</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>72</v>
@@ -8787,13 +8868,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>72</v>
@@ -8803,7 +8884,7 @@
         <v>73</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>72</v>
@@ -8815,16 +8896,16 @@
         <v>72</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8854,7 +8935,7 @@
       </c>
       <c r="Y64" s="2"/>
       <c r="Z64" t="s" s="2">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>72</v>
@@ -8872,7 +8953,7 @@
         <v>72</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>73</v>
@@ -8887,7 +8968,7 @@
         <v>93</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>72</v>
@@ -8895,13 +8976,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>72</v>
@@ -8923,16 +9004,16 @@
         <v>72</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -8962,7 +9043,7 @@
       </c>
       <c r="Y65" s="2"/>
       <c r="Z65" t="s" s="2">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>72</v>
@@ -8980,7 +9061,7 @@
         <v>72</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>73</v>
@@ -8995,7 +9076,7 @@
         <v>93</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>72</v>
@@ -9003,13 +9084,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>72</v>
@@ -9019,7 +9100,7 @@
         <v>73</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>72</v>
@@ -9031,16 +9112,16 @@
         <v>72</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9070,7 +9151,7 @@
       </c>
       <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>72</v>
@@ -9088,7 +9169,7 @@
         <v>72</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>73</v>
@@ -9103,7 +9184,7 @@
         <v>93</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>72</v>
@@ -9111,13 +9192,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>72</v>
@@ -9139,16 +9220,16 @@
         <v>72</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>403</v>
+        <v>442</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9178,7 +9259,7 @@
       </c>
       <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>72</v>
@@ -9196,7 +9277,7 @@
         <v>72</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>73</v>
@@ -9211,7 +9292,7 @@
         <v>93</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>72</v>
@@ -9219,13 +9300,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>72</v>
@@ -9235,7 +9316,7 @@
         <v>73</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>72</v>
@@ -9247,16 +9328,16 @@
         <v>72</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>403</v>
+        <v>446</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9286,7 +9367,7 @@
       </c>
       <c r="Y68" s="2"/>
       <c r="Z68" t="s" s="2">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>72</v>
@@ -9304,7 +9385,7 @@
         <v>72</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>73</v>
@@ -9319,7 +9400,7 @@
         <v>93</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>72</v>
@@ -9327,13 +9408,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>72</v>
@@ -9355,16 +9436,16 @@
         <v>72</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9394,7 +9475,7 @@
       </c>
       <c r="Y69" s="2"/>
       <c r="Z69" t="s" s="2">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>72</v>
@@ -9412,7 +9493,7 @@
         <v>72</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>73</v>
@@ -9427,7 +9508,7 @@
         <v>93</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>72</v>
@@ -9435,13 +9516,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>72</v>
@@ -9463,16 +9544,16 @@
         <v>72</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9502,7 +9583,7 @@
       </c>
       <c r="Y70" s="2"/>
       <c r="Z70" t="s" s="2">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>72</v>
@@ -9520,7 +9601,7 @@
         <v>72</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>73</v>
@@ -9535,7 +9616,7 @@
         <v>93</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>72</v>
@@ -9543,13 +9624,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>72</v>
@@ -9559,7 +9640,7 @@
         <v>73</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>72</v>
@@ -9571,16 +9652,16 @@
         <v>72</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>403</v>
+        <v>458</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9610,7 +9691,7 @@
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>72</v>
@@ -9628,7 +9709,7 @@
         <v>72</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>73</v>
@@ -9643,7 +9724,7 @@
         <v>93</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>72</v>
@@ -9651,13 +9732,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>72</v>
@@ -9667,7 +9748,7 @@
         <v>73</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>72</v>
@@ -9679,16 +9760,16 @@
         <v>72</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>403</v>
+        <v>462</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -9718,7 +9799,7 @@
       </c>
       <c r="Y72" s="2"/>
       <c r="Z72" t="s" s="2">
-        <v>427</v>
+        <v>463</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>72</v>
@@ -9736,7 +9817,7 @@
         <v>72</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>73</v>
@@ -9751,7 +9832,7 @@
         <v>93</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>72</v>
@@ -9759,10 +9840,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9785,16 +9866,16 @@
         <v>72</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>444</v>
+        <v>466</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -9844,7 +9925,7 @@
         <v>72</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>73</v>
@@ -9859,7 +9940,7 @@
         <v>93</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>446</v>
+        <v>468</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>72</v>
@@ -9867,10 +9948,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9893,16 +9974,16 @@
         <v>72</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>448</v>
+        <v>470</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>449</v>
+        <v>471</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9931,10 +10012,10 @@
         <v>149</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>450</v>
+        <v>472</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>451</v>
+        <v>473</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>72</v>
@@ -9952,7 +10033,7 @@
         <v>72</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>73</v>
@@ -9967,7 +10048,7 @@
         <v>93</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>72</v>
@@ -9975,10 +10056,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10001,13 +10082,13 @@
         <v>72</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>453</v>
+        <v>475</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>454</v>
+        <v>476</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10058,7 +10139,7 @@
         <v>72</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>73</v>
@@ -10073,7 +10154,7 @@
         <v>93</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>72</v>
@@ -10081,10 +10162,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>455</v>
+        <v>477</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>455</v>
+        <v>477</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10095,7 +10176,7 @@
         <v>73</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>72</v>
@@ -10107,16 +10188,16 @@
         <v>72</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>458</v>
+        <v>480</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10166,7 +10247,7 @@
         <v>72</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>455</v>
+        <v>477</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>73</v>
@@ -10181,7 +10262,7 @@
         <v>93</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>72</v>
@@ -10189,10 +10270,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>460</v>
+        <v>482</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>460</v>
+        <v>482</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10295,10 +10376,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10403,13 +10484,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>462</v>
+        <v>484</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>463</v>
+        <v>485</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>72</v>
@@ -10431,13 +10512,13 @@
         <v>72</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>189</v>
+        <v>487</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>465</v>
+        <v>488</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10511,13 +10592,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>466</v>
+        <v>489</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>467</v>
+        <v>490</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>72</v>
@@ -10539,13 +10620,13 @@
         <v>72</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>468</v>
+        <v>491</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>189</v>
+        <v>492</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10619,13 +10700,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>72</v>
@@ -10647,13 +10728,13 @@
         <v>72</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>189</v>
+        <v>497</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>473</v>
+        <v>498</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10727,14 +10808,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>474</v>
+        <v>499</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>474</v>
+        <v>499</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -10756,16 +10837,16 @@
         <v>103</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="N82" t="s" s="2">
         <v>106</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>72</v>
@@ -10814,7 +10895,7 @@
         <v>72</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>73</v>
@@ -10837,10 +10918,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10866,13 +10947,13 @@
         <v>164</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>476</v>
+        <v>501</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -10901,10 +10982,10 @@
         <v>156</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>72</v>
@@ -10922,7 +11003,7 @@
         <v>72</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>73</v>
@@ -10937,7 +11018,7 @@
         <v>93</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>72</v>
@@ -10945,10 +11026,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10971,13 +11052,13 @@
         <v>72</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>481</v>
+        <v>506</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11028,7 +11109,7 @@
         <v>72</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>73</v>
@@ -11043,7 +11124,7 @@
         <v>93</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>72</v>
@@ -11051,10 +11132,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11077,16 +11158,16 @@
         <v>72</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>487</v>
+        <v>512</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -11136,7 +11217,7 @@
         <v>72</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>73</v>
@@ -11151,7 +11232,7 @@
         <v>93</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>72</v>
@@ -11159,10 +11240,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11185,16 +11266,16 @@
         <v>72</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>489</v>
+        <v>514</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>490</v>
+        <v>515</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>487</v>
+        <v>512</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -11244,7 +11325,7 @@
         <v>72</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>73</v>
@@ -11259,7 +11340,7 @@
         <v>93</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>72</v>
@@ -11267,10 +11348,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>491</v>
+        <v>516</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>491</v>
+        <v>516</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11293,13 +11374,13 @@
         <v>72</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>492</v>
+        <v>517</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11348,7 +11429,7 @@
         <v>109</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>491</v>
+        <v>516</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>73</v>
@@ -11363,7 +11444,7 @@
         <v>93</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>72</v>
@@ -11371,10 +11452,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11477,10 +11558,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11585,14 +11666,14 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>496</v>
+        <v>521</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>496</v>
+        <v>521</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -11614,16 +11695,16 @@
         <v>103</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>106</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>72</v>
@@ -11672,7 +11753,7 @@
         <v>72</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>73</v>
@@ -11695,10 +11776,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>497</v>
+        <v>522</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>497</v>
+        <v>522</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11724,13 +11805,13 @@
         <v>96</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>498</v>
+        <v>523</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>499</v>
+        <v>524</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -11780,7 +11861,7 @@
         <v>72</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>497</v>
+        <v>522</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -11803,10 +11884,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11829,16 +11910,16 @@
         <v>72</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>501</v>
+        <v>526</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>502</v>
+        <v>527</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -11888,7 +11969,7 @@
         <v>72</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>73</v>
@@ -11900,10 +11981,10 @@
         <v>92</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>72</v>
@@ -11911,13 +11992,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>503</v>
+        <v>528</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>491</v>
+        <v>516</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>504</v>
+        <v>529</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>72</v>
@@ -11939,13 +12020,13 @@
         <v>72</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>492</v>
+        <v>530</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -11996,7 +12077,7 @@
         <v>72</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>491</v>
+        <v>516</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>73</v>
@@ -12011,7 +12092,7 @@
         <v>93</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>72</v>
@@ -12019,10 +12100,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>505</v>
+        <v>531</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12125,10 +12206,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>506</v>
+        <v>532</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12233,14 +12314,14 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>507</v>
+        <v>533</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>496</v>
+        <v>521</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -12262,16 +12343,16 @@
         <v>103</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="N96" t="s" s="2">
         <v>106</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>72</v>
@@ -12320,7 +12401,7 @@
         <v>72</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>73</v>
@@ -12343,10 +12424,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>508</v>
+        <v>534</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>497</v>
+        <v>522</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12372,13 +12453,13 @@
         <v>96</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>498</v>
+        <v>523</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>499</v>
+        <v>524</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -12428,7 +12509,7 @@
         <v>72</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>497</v>
+        <v>522</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -12451,10 +12532,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>509</v>
+        <v>535</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12477,16 +12558,16 @@
         <v>72</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>501</v>
+        <v>526</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>502</v>
+        <v>527</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -12536,7 +12617,7 @@
         <v>72</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>73</v>
@@ -12548,10 +12629,10 @@
         <v>92</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>72</v>
@@ -12559,13 +12640,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>510</v>
+        <v>536</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>491</v>
+        <v>516</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>511</v>
+        <v>537</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>72</v>
@@ -12587,13 +12668,13 @@
         <v>72</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>492</v>
+        <v>538</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -12644,7 +12725,7 @@
         <v>72</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>491</v>
+        <v>516</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>73</v>
@@ -12659,7 +12740,7 @@
         <v>93</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>72</v>
@@ -12667,10 +12748,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>512</v>
+        <v>539</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12773,10 +12854,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>513</v>
+        <v>540</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12881,14 +12962,14 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>514</v>
+        <v>541</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>496</v>
+        <v>521</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -12910,16 +12991,16 @@
         <v>103</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="N102" t="s" s="2">
         <v>106</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>72</v>
@@ -12968,7 +13049,7 @@
         <v>72</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>73</v>
@@ -12991,10 +13072,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>515</v>
+        <v>542</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>497</v>
+        <v>522</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13020,13 +13101,13 @@
         <v>96</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>498</v>
+        <v>523</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>499</v>
+        <v>524</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -13076,7 +13157,7 @@
         <v>72</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>497</v>
+        <v>522</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -13099,10 +13180,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>516</v>
+        <v>543</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13125,16 +13206,16 @@
         <v>72</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>501</v>
+        <v>526</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>502</v>
+        <v>527</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -13184,7 +13265,7 @@
         <v>72</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>73</v>
@@ -13196,10 +13277,10 @@
         <v>92</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>72</v>
@@ -13207,10 +13288,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>517</v>
+        <v>544</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>517</v>
+        <v>544</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13236,13 +13317,13 @@
         <v>96</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>519</v>
+        <v>546</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -13292,7 +13373,7 @@
         <v>72</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>517</v>
+        <v>544</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>73</v>
@@ -13307,7 +13388,7 @@
         <v>93</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>72</v>
@@ -13315,10 +13396,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>520</v>
+        <v>547</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>520</v>
+        <v>547</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13341,16 +13422,16 @@
         <v>72</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>521</v>
+        <v>548</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>522</v>
+        <v>549</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>523</v>
+        <v>550</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -13400,7 +13481,7 @@
         <v>72</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>520</v>
+        <v>547</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>73</v>
@@ -13412,10 +13493,10 @@
         <v>92</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>524</v>
+        <v>551</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>72</v>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T09:15:18+00:00</t>
+    <t>2023-03-09T12:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3630" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3630" uniqueCount="551">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T12:07:06+00:00</t>
+    <t>2023-03-09T16:26:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -868,10 +868,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:coding.system}
-</t>
   </si>
   <si>
     <t>HealthcareService.specialty:operationalActivity</t>
@@ -5491,7 +5487,7 @@
         <v>72</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>273</v>
+        <v>107</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
@@ -5524,13 +5520,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>268</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>72</v>
@@ -5555,7 +5551,7 @@
         <v>254</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>270</v>
@@ -5591,7 +5587,7 @@
       </c>
       <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>72</v>
@@ -5632,13 +5628,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>268</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>72</v>
@@ -5663,7 +5659,7 @@
         <v>254</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>270</v>
@@ -5699,7 +5695,7 @@
       </c>
       <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>72</v>
@@ -5740,10 +5736,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5766,16 +5762,16 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5825,7 +5821,7 @@
         <v>72</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>73</v>
@@ -5840,18 +5836,18 @@
         <v>250</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>288</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5877,13 +5873,13 @@
         <v>96</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5933,7 +5929,7 @@
         <v>72</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>73</v>
@@ -5948,7 +5944,7 @@
         <v>93</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>72</v>
@@ -5956,10 +5952,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5985,13 +5981,13 @@
         <v>96</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6041,7 +6037,7 @@
         <v>72</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>73</v>
@@ -6056,7 +6052,7 @@
         <v>93</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>72</v>
@@ -6064,10 +6060,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6090,16 +6086,16 @@
         <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6149,7 +6145,7 @@
         <v>72</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>73</v>
@@ -6164,7 +6160,7 @@
         <v>93</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>72</v>
@@ -6172,10 +6168,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6198,16 +6194,16 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6257,7 +6253,7 @@
         <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>73</v>
@@ -6269,10 +6265,10 @@
         <v>92</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>72</v>
@@ -6280,10 +6276,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6306,16 +6302,16 @@
         <v>72</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6365,7 +6361,7 @@
         <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>73</v>
@@ -6377,10 +6373,10 @@
         <v>92</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>72</v>
@@ -6388,10 +6384,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6494,10 +6490,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6600,13 +6596,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="C43" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>72</v>
@@ -6628,13 +6624,13 @@
         <v>72</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6708,13 +6704,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="C44" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>72</v>
@@ -6736,13 +6732,13 @@
         <v>72</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6816,13 +6812,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="C45" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>72</v>
@@ -6844,13 +6840,13 @@
         <v>72</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6924,10 +6920,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6953,13 +6949,13 @@
         <v>164</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>338</v>
-      </c>
       <c r="N46" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6988,28 +6984,28 @@
         <v>156</v>
       </c>
       <c r="Y46" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="Z46" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="Z46" t="s" s="2">
+      <c r="AA46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF46" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>73</v>
@@ -7018,13 +7014,13 @@
         <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>72</v>
@@ -7032,10 +7028,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7061,16 +7057,16 @@
         <v>96</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>72</v>
@@ -7119,7 +7115,7 @@
         <v>72</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>73</v>
@@ -7134,7 +7130,7 @@
         <v>93</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>72</v>
@@ -7142,10 +7138,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7171,16 +7167,16 @@
         <v>164</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>72</v>
@@ -7208,28 +7204,28 @@
         <v>156</v>
       </c>
       <c r="Y48" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="Z48" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="Z48" t="s" s="2">
+      <c r="AA48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF48" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>73</v>
@@ -7244,7 +7240,7 @@
         <v>93</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>72</v>
@@ -7252,10 +7248,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7278,16 +7274,16 @@
         <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7337,7 +7333,7 @@
         <v>72</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>73</v>
@@ -7360,10 +7356,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7386,16 +7382,16 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7445,7 +7441,7 @@
         <v>72</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>73</v>
@@ -7457,10 +7453,10 @@
         <v>92</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>72</v>
@@ -7468,10 +7464,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7494,16 +7490,16 @@
         <v>72</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7553,7 +7549,7 @@
         <v>72</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>73</v>
@@ -7568,7 +7564,7 @@
         <v>250</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>72</v>
@@ -7576,10 +7572,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7605,13 +7601,13 @@
         <v>254</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7640,10 +7636,10 @@
         <v>149</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>72</v>
@@ -7661,7 +7657,7 @@
         <v>72</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>73</v>
@@ -7676,7 +7672,7 @@
         <v>93</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>72</v>
@@ -7684,10 +7680,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7710,13 +7706,13 @@
         <v>72</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7767,7 +7763,7 @@
         <v>72</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>73</v>
@@ -7790,10 +7786,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7896,10 +7892,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8004,14 +8000,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8033,10 +8029,10 @@
         <v>103</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>106</v>
@@ -8091,7 +8087,7 @@
         <v>72</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>73</v>
@@ -8114,10 +8110,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8143,10 +8139,10 @@
         <v>254</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>265</v>
@@ -8178,7 +8174,7 @@
         <v>149</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>72</v>
@@ -8199,7 +8195,7 @@
         <v>72</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>73</v>
@@ -8214,7 +8210,7 @@
         <v>93</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>72</v>
@@ -8222,10 +8218,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8248,16 +8244,16 @@
         <v>72</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8307,7 +8303,7 @@
         <v>72</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>73</v>
@@ -8322,7 +8318,7 @@
         <v>93</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>72</v>
@@ -8330,10 +8326,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8359,13 +8355,13 @@
         <v>254</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8394,11 +8390,11 @@
         <v>149</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="Z59" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>410</v>
-      </c>
       <c r="AA59" t="s" s="2">
         <v>72</v>
       </c>
@@ -8415,7 +8411,7 @@
         <v>72</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>73</v>
@@ -8430,7 +8426,7 @@
         <v>93</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>72</v>
@@ -8438,10 +8434,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8467,13 +8463,13 @@
         <v>254</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8502,7 +8498,7 @@
         <v>149</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>72</v>
@@ -8521,7 +8517,7 @@
         <v>109</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>73</v>
@@ -8536,7 +8532,7 @@
         <v>93</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>72</v>
@@ -8544,13 +8540,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="C61" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>72</v>
@@ -8575,13 +8571,13 @@
         <v>254</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M61" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N61" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8611,7 +8607,7 @@
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>72</v>
@@ -8629,7 +8625,7 @@
         <v>72</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>73</v>
@@ -8644,7 +8640,7 @@
         <v>93</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>72</v>
@@ -8652,13 +8648,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="C62" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>72</v>
@@ -8683,13 +8679,13 @@
         <v>254</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M62" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N62" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8719,7 +8715,7 @@
       </c>
       <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>72</v>
@@ -8737,7 +8733,7 @@
         <v>72</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>73</v>
@@ -8752,7 +8748,7 @@
         <v>93</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>72</v>
@@ -8760,13 +8756,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="C63" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>72</v>
@@ -8791,13 +8787,13 @@
         <v>254</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M63" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -8827,7 +8823,7 @@
       </c>
       <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>72</v>
@@ -8845,7 +8841,7 @@
         <v>72</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>73</v>
@@ -8860,7 +8856,7 @@
         <v>93</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>72</v>
@@ -8868,13 +8864,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="C64" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>72</v>
@@ -8899,13 +8895,13 @@
         <v>254</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M64" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N64" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8935,7 +8931,7 @@
       </c>
       <c r="Y64" s="2"/>
       <c r="Z64" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>72</v>
@@ -8953,7 +8949,7 @@
         <v>72</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>73</v>
@@ -8968,7 +8964,7 @@
         <v>93</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>72</v>
@@ -8976,13 +8972,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="C65" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>72</v>
@@ -9007,13 +9003,13 @@
         <v>254</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M65" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9043,7 +9039,7 @@
       </c>
       <c r="Y65" s="2"/>
       <c r="Z65" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>72</v>
@@ -9061,7 +9057,7 @@
         <v>72</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>73</v>
@@ -9076,7 +9072,7 @@
         <v>93</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>72</v>
@@ -9084,13 +9080,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="C66" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>72</v>
@@ -9115,13 +9111,13 @@
         <v>254</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M66" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9151,7 +9147,7 @@
       </c>
       <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>72</v>
@@ -9169,7 +9165,7 @@
         <v>72</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>73</v>
@@ -9184,7 +9180,7 @@
         <v>93</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>72</v>
@@ -9192,13 +9188,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="C67" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>72</v>
@@ -9223,13 +9219,13 @@
         <v>254</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M67" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9259,7 +9255,7 @@
       </c>
       <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>72</v>
@@ -9277,7 +9273,7 @@
         <v>72</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>73</v>
@@ -9292,7 +9288,7 @@
         <v>93</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>72</v>
@@ -9300,13 +9296,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="C68" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>72</v>
@@ -9331,13 +9327,13 @@
         <v>254</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M68" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9367,7 +9363,7 @@
       </c>
       <c r="Y68" s="2"/>
       <c r="Z68" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>72</v>
@@ -9385,7 +9381,7 @@
         <v>72</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>73</v>
@@ -9400,7 +9396,7 @@
         <v>93</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>72</v>
@@ -9408,13 +9404,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="C69" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>72</v>
@@ -9439,13 +9435,13 @@
         <v>254</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M69" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9475,7 +9471,7 @@
       </c>
       <c r="Y69" s="2"/>
       <c r="Z69" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>72</v>
@@ -9493,7 +9489,7 @@
         <v>72</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>73</v>
@@ -9508,7 +9504,7 @@
         <v>93</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>72</v>
@@ -9516,13 +9512,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="C70" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>72</v>
@@ -9547,13 +9543,13 @@
         <v>254</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M70" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N70" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9583,7 +9579,7 @@
       </c>
       <c r="Y70" s="2"/>
       <c r="Z70" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>72</v>
@@ -9601,7 +9597,7 @@
         <v>72</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>73</v>
@@ -9616,7 +9612,7 @@
         <v>93</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>72</v>
@@ -9624,13 +9620,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="C71" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>72</v>
@@ -9655,13 +9651,13 @@
         <v>254</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M71" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N71" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9691,7 +9687,7 @@
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>72</v>
@@ -9709,7 +9705,7 @@
         <v>72</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>73</v>
@@ -9724,7 +9720,7 @@
         <v>93</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>72</v>
@@ -9732,13 +9728,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="C72" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>72</v>
@@ -9763,13 +9759,13 @@
         <v>254</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M72" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N72" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -9799,7 +9795,7 @@
       </c>
       <c r="Y72" s="2"/>
       <c r="Z72" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>72</v>
@@ -9817,7 +9813,7 @@
         <v>72</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>73</v>
@@ -9832,7 +9828,7 @@
         <v>93</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>72</v>
@@ -9840,10 +9836,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9869,13 +9865,13 @@
         <v>254</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -9925,7 +9921,7 @@
         <v>72</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>73</v>
@@ -9940,7 +9936,7 @@
         <v>93</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>72</v>
@@ -9948,10 +9944,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9977,10 +9973,10 @@
         <v>254</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>265</v>
@@ -10012,11 +10008,11 @@
         <v>149</v>
       </c>
       <c r="Y74" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="Z74" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="Z74" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="AA74" t="s" s="2">
         <v>72</v>
       </c>
@@ -10033,7 +10029,7 @@
         <v>72</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>73</v>
@@ -10048,7 +10044,7 @@
         <v>93</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>72</v>
@@ -10056,10 +10052,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10085,10 +10081,10 @@
         <v>238</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10139,7 +10135,7 @@
         <v>72</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>73</v>
@@ -10154,7 +10150,7 @@
         <v>93</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>72</v>
@@ -10162,10 +10158,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10188,16 +10184,16 @@
         <v>72</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10247,7 +10243,7 @@
         <v>72</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>73</v>
@@ -10262,7 +10258,7 @@
         <v>93</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>72</v>
@@ -10270,10 +10266,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10376,10 +10372,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10484,13 +10480,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="C79" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="C79" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>72</v>
@@ -10512,13 +10508,13 @@
         <v>72</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10592,13 +10588,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="C80" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>72</v>
@@ -10620,13 +10616,13 @@
         <v>72</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10700,13 +10696,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="C81" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>72</v>
@@ -10728,13 +10724,13 @@
         <v>72</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10808,14 +10804,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -10837,10 +10833,10 @@
         <v>103</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N82" t="s" s="2">
         <v>106</v>
@@ -10895,7 +10891,7 @@
         <v>72</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>73</v>
@@ -10918,10 +10914,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10947,13 +10943,13 @@
         <v>164</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="M83" t="s" s="2">
-        <v>502</v>
-      </c>
       <c r="N83" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -10982,11 +10978,11 @@
         <v>156</v>
       </c>
       <c r="Y83" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="Z83" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="Z83" t="s" s="2">
-        <v>504</v>
-      </c>
       <c r="AA83" t="s" s="2">
         <v>72</v>
       </c>
@@ -11003,7 +10999,7 @@
         <v>72</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>73</v>
@@ -11018,7 +11014,7 @@
         <v>93</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>72</v>
@@ -11026,10 +11022,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11055,10 +11051,10 @@
         <v>238</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11109,7 +11105,7 @@
         <v>72</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>73</v>
@@ -11124,7 +11120,7 @@
         <v>93</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>72</v>
@@ -11132,10 +11128,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11158,16 +11154,16 @@
         <v>72</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -11217,7 +11213,7 @@
         <v>72</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>73</v>
@@ -11232,7 +11228,7 @@
         <v>93</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>72</v>
@@ -11240,10 +11236,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11266,16 +11262,16 @@
         <v>72</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="M86" t="s" s="2">
-        <v>515</v>
-      </c>
       <c r="N86" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -11325,7 +11321,7 @@
         <v>72</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>73</v>
@@ -11340,7 +11336,7 @@
         <v>93</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>72</v>
@@ -11348,10 +11344,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11374,13 +11370,13 @@
         <v>72</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11429,7 +11425,7 @@
         <v>109</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>73</v>
@@ -11444,7 +11440,7 @@
         <v>93</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>72</v>
@@ -11452,10 +11448,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11558,10 +11554,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11666,14 +11662,14 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -11695,10 +11691,10 @@
         <v>103</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>106</v>
@@ -11753,7 +11749,7 @@
         <v>72</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>73</v>
@@ -11776,10 +11772,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11805,13 +11801,13 @@
         <v>96</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="M91" t="s" s="2">
-        <v>524</v>
-      </c>
       <c r="N91" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -11861,7 +11857,7 @@
         <v>72</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -11884,10 +11880,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11910,16 +11906,16 @@
         <v>72</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="M92" t="s" s="2">
-        <v>527</v>
-      </c>
       <c r="N92" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -11969,7 +11965,7 @@
         <v>72</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>73</v>
@@ -11981,10 +11977,10 @@
         <v>92</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>72</v>
@@ -11992,13 +11988,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="C93" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="C93" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>72</v>
@@ -12020,13 +12016,13 @@
         <v>72</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12077,7 +12073,7 @@
         <v>72</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>73</v>
@@ -12092,7 +12088,7 @@
         <v>93</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>72</v>
@@ -12100,10 +12096,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12206,10 +12202,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12314,14 +12310,14 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -12343,10 +12339,10 @@
         <v>103</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N96" t="s" s="2">
         <v>106</v>
@@ -12401,7 +12397,7 @@
         <v>72</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>73</v>
@@ -12424,10 +12420,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12453,13 +12449,13 @@
         <v>96</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="M97" t="s" s="2">
-        <v>524</v>
-      </c>
       <c r="N97" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -12509,7 +12505,7 @@
         <v>72</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -12532,10 +12528,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12558,16 +12554,16 @@
         <v>72</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="M98" t="s" s="2">
-        <v>527</v>
-      </c>
       <c r="N98" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -12617,7 +12613,7 @@
         <v>72</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>73</v>
@@ -12629,10 +12625,10 @@
         <v>92</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>72</v>
@@ -12640,13 +12636,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="C99" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="C99" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>72</v>
@@ -12668,13 +12664,13 @@
         <v>72</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -12725,7 +12721,7 @@
         <v>72</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>73</v>
@@ -12740,7 +12736,7 @@
         <v>93</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>72</v>
@@ -12748,10 +12744,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12854,10 +12850,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12962,14 +12958,14 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -12991,10 +12987,10 @@
         <v>103</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N102" t="s" s="2">
         <v>106</v>
@@ -13049,7 +13045,7 @@
         <v>72</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>73</v>
@@ -13072,10 +13068,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13101,13 +13097,13 @@
         <v>96</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="M103" t="s" s="2">
-        <v>524</v>
-      </c>
       <c r="N103" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -13157,7 +13153,7 @@
         <v>72</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -13180,10 +13176,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13206,16 +13202,16 @@
         <v>72</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="M104" t="s" s="2">
-        <v>527</v>
-      </c>
       <c r="N104" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -13265,7 +13261,7 @@
         <v>72</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>73</v>
@@ -13277,10 +13273,10 @@
         <v>92</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>72</v>
@@ -13288,10 +13284,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13317,13 +13313,13 @@
         <v>96</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="M105" t="s" s="2">
-        <v>546</v>
-      </c>
       <c r="N105" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -13373,7 +13369,7 @@
         <v>72</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>73</v>
@@ -13388,7 +13384,7 @@
         <v>93</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>72</v>
@@ -13396,10 +13392,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13422,16 +13418,16 @@
         <v>72</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="M106" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="M106" t="s" s="2">
-        <v>550</v>
-      </c>
       <c r="N106" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -13481,7 +13477,7 @@
         <v>72</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>73</v>
@@ -13496,7 +13492,7 @@
         <v>250</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>72</v>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T16:26:30+00:00</t>
+    <t>2023-03-10T10:03:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T10:03:34+00:00</t>
+    <t>2023-03-10T14:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T14:03:40+00:00</t>
+    <t>2023-03-10T16:06:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:06:49+00:00</t>
+    <t>2023-03-13T07:40:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T07:40:36+00:00</t>
+    <t>2023-03-13T11:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T11:14:34+00:00</t>
+    <t>2023-03-13T13:58:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T13:58:57+00:00</t>
+    <t>2023-03-13T14:14:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T14:14:07+00:00</t>
+    <t>2023-03-13T14:59:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T14:59:56+00:00</t>
+    <t>2023-03-13T15:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T15:28:19+00:00</t>
+    <t>2023-03-14T07:46:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T07:46:37+00:00</t>
+    <t>2023-03-15T15:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T15:36:42+00:00</t>
+    <t>2023-03-15T15:41:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T15:41:30+00:00</t>
+    <t>2023-03-21T15:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3630" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3664" uniqueCount="557">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-21T15:32:49+00:00</t>
+    <t>2023-03-27T14:30:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -599,7 +599,7 @@
     <t>HealthcareService.extension</t>
   </si>
   <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t>Extension</t>
@@ -721,6 +721,22 @@
     <t>Extension créée dans le cadre du ROR pour décrire la personne ou le service qui agit comme point de contact de l'offre.</t>
   </si>
   <si>
+    <t>HealthcareService.extension:ror-meta-creation-date</t>
+  </si>
+  <si>
+    <t>ror-meta-creation-date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-meta-creation-date}
+</t>
+  </si>
+  <si>
+    <t>dateCreation (Metadonnee)</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR qui correspond à la date de création (dans le ROR régionnal) présente dans les métadonnées.</t>
+  </si>
+  <si>
     <t>HealthcareService.modifierExtension</t>
   </si>
   <si>
@@ -840,7 +856,7 @@
 </t>
   </si>
   <si>
-    <t>champActivite (OffreOperationnelle) : domaine dans lequel s'inscrit l'offre</t>
+    <t>champActivite (OffreOperationnelle) : Domaine dans lequel s'inscrit l'offre</t>
   </si>
   <si>
     <t>The specific type of service that may be delivered or performed.</t>
@@ -934,7 +950,7 @@
     <t>HealthcareService.comment</t>
   </si>
   <si>
-    <t>Additional description and/or any specific issues not covered elsewhere</t>
+    <t>commentaire (Metadonnee) : Commentaire qui peut être associé à chaque objet</t>
   </si>
   <si>
     <t>Any additional description of the service and/or any specific issues not covered by the other attributes, which can be displayed as further detail under the serviceName.</t>
@@ -1015,6 +1031,9 @@
   </si>
   <si>
     <t>HealthcareService.telecom.extension</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>HealthcareService.telecom.extension:ror-telecom-communication-channel</t>
@@ -2018,7 +2037,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL106"/>
+  <dimension ref="A1:AL107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2837,7 +2856,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>80</v>
@@ -4771,43 +4790,41 @@
         <v>226</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="D26" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>103</v>
+        <v>228</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>72</v>
       </c>
@@ -4843,19 +4860,19 @@
         <v>72</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>73</v>
@@ -4870,7 +4887,7 @@
         <v>111</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>72</v>
@@ -4885,35 +4902,39 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="O27" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>72</v>
       </c>
@@ -4949,19 +4970,19 @@
         <v>72</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>73</v>
@@ -4973,21 +4994,21 @@
         <v>92</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>236</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4995,7 +5016,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>80</v>
@@ -5004,30 +5025,26 @@
         <v>72</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>241</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="Q28" t="s" s="2">
-        <v>242</v>
-      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
         <v>72</v>
       </c>
@@ -5071,13 +5088,13 @@
         <v>72</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>92</v>
@@ -5086,18 +5103,18 @@
         <v>93</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5114,28 +5131,30 @@
         <v>72</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="Q29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="R29" t="s" s="2">
         <v>72</v>
       </c>
@@ -5179,7 +5198,7 @@
         <v>72</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
@@ -5191,25 +5210,25 @@
         <v>92</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>250</v>
+        <v>93</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>72</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>253</v>
+        <v>72</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5228,16 +5247,16 @@
         <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5263,11 +5282,13 @@
         <v>72</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="Y30" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z30" t="s" s="2">
-        <v>258</v>
+        <v>72</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>72</v>
@@ -5285,41 +5306,41 @@
         <v>72</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>93</v>
+        <v>255</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>260</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>80</v>
@@ -5334,16 +5355,16 @@
         <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5373,7 +5394,7 @@
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>72</v>
@@ -5391,7 +5412,7 @@
         <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>73</v>
@@ -5406,29 +5427,29 @@
         <v>93</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>72</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>72</v>
+        <v>267</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>72</v>
@@ -5440,16 +5461,16 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5475,29 +5496,29 @@
         <v>72</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="Y32" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y32" s="2"/>
+      <c r="Z32" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>272</v>
-      </c>
       <c r="AA32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AC32" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AD32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>73</v>
@@ -5512,7 +5533,7 @@
         <v>93</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>72</v>
@@ -5523,11 +5544,9 @@
         <v>273</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
         <v>72</v>
       </c>
@@ -5536,7 +5555,7 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>72</v>
@@ -5548,16 +5567,16 @@
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5583,29 +5602,29 @@
         <v>72</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="Y33" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="Z33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="AC33" s="2"/>
       <c r="AD33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>73</v>
@@ -5620,7 +5639,7 @@
         <v>93</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>72</v>
@@ -5628,20 +5647,20 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>80</v>
@@ -5656,16 +5675,16 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M34" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5695,7 +5714,7 @@
       </c>
       <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>72</v>
@@ -5713,7 +5732,7 @@
         <v>72</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>73</v>
@@ -5728,7 +5747,7 @@
         <v>93</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>72</v>
@@ -5736,12 +5755,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="D35" t="s" s="2">
         <v>72</v>
       </c>
@@ -5750,7 +5771,7 @@
         <v>73</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>72</v>
@@ -5762,16 +5783,16 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5797,13 +5818,11 @@
         <v>72</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>72</v>
+        <v>285</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>72</v>
@@ -5821,7 +5840,7 @@
         <v>72</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>73</v>
@@ -5833,21 +5852,21 @@
         <v>92</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>250</v>
+        <v>93</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>287</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5858,7 +5877,7 @@
         <v>73</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>72</v>
@@ -5870,16 +5889,16 @@
         <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>96</v>
+        <v>287</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5929,25 +5948,25 @@
         <v>72</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>93</v>
+        <v>255</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>72</v>
       </c>
     </row>
     <row r="37">
@@ -6083,19 +6102,19 @@
         <v>72</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6160,7 +6179,7 @@
         <v>93</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>72</v>
@@ -6168,10 +6187,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6191,19 +6210,19 @@
         <v>72</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6253,7 +6272,7 @@
         <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>73</v>
@@ -6265,10 +6284,10 @@
         <v>92</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>309</v>
+        <v>93</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>72</v>
@@ -6276,10 +6295,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6290,7 +6309,7 @@
         <v>73</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>72</v>
@@ -6299,19 +6318,19 @@
         <v>72</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6361,22 +6380,22 @@
         <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>72</v>
@@ -6384,10 +6403,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6398,7 +6417,7 @@
         <v>73</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>72</v>
@@ -6410,15 +6429,17 @@
         <v>72</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>96</v>
+        <v>317</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>97</v>
+        <v>318</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>72</v>
@@ -6467,22 +6488,22 @@
         <v>72</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>99</v>
+        <v>316</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>72</v>
+        <v>321</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>100</v>
+        <v>322</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>72</v>
@@ -6490,10 +6511,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6501,10 +6522,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>72</v>
@@ -6516,13 +6537,13 @@
         <v>72</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>189</v>
+        <v>97</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>190</v>
+        <v>98</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6561,34 +6582,34 @@
         <v>72</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>72</v>
@@ -6596,23 +6617,21 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>72</v>
@@ -6624,13 +6643,13 @@
         <v>72</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>322</v>
+        <v>103</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>323</v>
+        <v>189</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>324</v>
+        <v>190</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6669,16 +6688,16 @@
         <v>72</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>110</v>
@@ -6704,20 +6723,20 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>80</v>
@@ -6732,13 +6751,13 @@
         <v>72</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6812,20 +6831,20 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>80</v>
@@ -6840,13 +6859,13 @@
         <v>72</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6920,18 +6939,20 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>80</v>
@@ -6943,20 +6964,18 @@
         <v>72</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>164</v>
+        <v>338</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>72</v>
@@ -6981,13 +7000,13 @@
         <v>72</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>338</v>
+        <v>72</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>339</v>
+        <v>72</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>72</v>
@@ -7005,22 +7024,22 @@
         <v>72</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>340</v>
+        <v>110</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>341</v>
+        <v>92</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>342</v>
+        <v>72</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>72</v>
@@ -7028,10 +7047,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7039,7 +7058,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>80</v>
@@ -7054,20 +7073,18 @@
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>72</v>
       </c>
@@ -7091,13 +7108,13 @@
         <v>72</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>72</v>
+        <v>344</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>72</v>
+        <v>345</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>72</v>
@@ -7115,7 +7132,7 @@
         <v>72</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>73</v>
@@ -7124,13 +7141,13 @@
         <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>92</v>
+        <v>347</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>72</v>
@@ -7138,10 +7155,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7149,7 +7166,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>80</v>
@@ -7158,25 +7175,25 @@
         <v>72</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>72</v>
@@ -7201,13 +7218,13 @@
         <v>72</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>355</v>
+        <v>72</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>356</v>
+        <v>72</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>72</v>
@@ -7225,7 +7242,7 @@
         <v>72</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>73</v>
@@ -7240,7 +7257,7 @@
         <v>93</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>72</v>
@@ -7248,10 +7265,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7268,24 +7285,26 @@
         <v>72</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="O49" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>72</v>
       </c>
@@ -7309,13 +7328,13 @@
         <v>72</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>72</v>
+        <v>361</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>72</v>
+        <v>362</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>72</v>
@@ -7333,7 +7352,7 @@
         <v>72</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>73</v>
@@ -7348,7 +7367,7 @@
         <v>93</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>100</v>
+        <v>364</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>72</v>
@@ -7453,10 +7472,10 @@
         <v>92</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>371</v>
+        <v>93</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>372</v>
+        <v>100</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>72</v>
@@ -7464,10 +7483,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7478,7 +7497,7 @@
         <v>73</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>72</v>
@@ -7487,19 +7506,19 @@
         <v>72</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>282</v>
+        <v>372</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7549,22 +7568,22 @@
         <v>72</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>72</v>
@@ -7572,10 +7591,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7598,16 +7617,16 @@
         <v>72</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7633,13 +7652,13 @@
         <v>72</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>380</v>
+        <v>72</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>382</v>
+        <v>72</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>72</v>
@@ -7657,7 +7676,7 @@
         <v>72</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>73</v>
@@ -7669,7 +7688,7 @@
         <v>92</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>93</v>
+        <v>255</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>383</v>
@@ -7706,15 +7725,17 @@
         <v>72</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>72</v>
@@ -7739,13 +7760,13 @@
         <v>72</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>72</v>
+        <v>386</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>72</v>
+        <v>388</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>72</v>
@@ -7778,7 +7799,7 @@
         <v>93</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>100</v>
+        <v>389</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>72</v>
@@ -7786,10 +7807,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7800,7 +7821,7 @@
         <v>73</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>72</v>
@@ -7812,13 +7833,13 @@
         <v>72</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>96</v>
+        <v>391</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>97</v>
+        <v>392</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>98</v>
+        <v>393</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7869,19 +7890,19 @@
         <v>72</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>99</v>
+        <v>390</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>100</v>
@@ -7892,21 +7913,21 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>72</v>
@@ -7918,17 +7939,15 @@
         <v>72</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>72</v>
@@ -7965,34 +7984,34 @@
         <v>72</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>72</v>
@@ -8000,14 +8019,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>391</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8020,26 +8039,24 @@
         <v>72</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>103</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>392</v>
+        <v>104</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>393</v>
+        <v>105</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="O56" t="s" s="2">
-        <v>229</v>
-      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>72</v>
       </c>
@@ -8075,19 +8092,19 @@
         <v>72</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>394</v>
+        <v>110</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>73</v>
@@ -8110,44 +8127,46 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>72</v>
+        <v>397</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>254</v>
+        <v>103</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>72</v>
       </c>
@@ -8171,10 +8190,10 @@
         <v>72</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>398</v>
+        <v>72</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>72</v>
@@ -8195,22 +8214,22 @@
         <v>72</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>383</v>
+        <v>94</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>72</v>
@@ -8218,10 +8237,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8244,16 +8263,16 @@
         <v>72</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>402</v>
+        <v>270</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8279,10 +8298,10 @@
         <v>72</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>72</v>
+        <v>404</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>72</v>
@@ -8303,7 +8322,7 @@
         <v>72</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>73</v>
@@ -8318,7 +8337,7 @@
         <v>93</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>72</v>
@@ -8326,10 +8345,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8340,7 +8359,7 @@
         <v>73</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>72</v>
@@ -8352,16 +8371,16 @@
         <v>72</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>254</v>
+        <v>304</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8387,13 +8406,13 @@
         <v>72</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>408</v>
+        <v>72</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>409</v>
+        <v>72</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>72</v>
@@ -8411,13 +8430,13 @@
         <v>72</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>92</v>
@@ -8426,7 +8445,7 @@
         <v>93</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>72</v>
@@ -8434,10 +8453,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8445,7 +8464,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>74</v>
@@ -8460,16 +8479,16 @@
         <v>72</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8498,26 +8517,28 @@
         <v>149</v>
       </c>
       <c r="Y60" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="Z60" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="AA60" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AC60" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AD60" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>73</v>
@@ -8532,7 +8553,7 @@
         <v>93</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>72</v>
@@ -8540,23 +8561,21 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="C61" t="s" s="2">
         <v>417</v>
       </c>
+      <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>72</v>
@@ -8568,16 +8587,16 @@
         <v>72</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L61" t="s" s="2">
         <v>418</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8603,29 +8622,29 @@
         <v>72</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="Y61" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="Z61" t="s" s="2">
-        <v>419</v>
+        <v>72</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="AC61" s="2"/>
       <c r="AD61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>73</v>
@@ -8640,7 +8659,7 @@
         <v>93</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>72</v>
@@ -8648,20 +8667,20 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>80</v>
@@ -8676,16 +8695,16 @@
         <v>72</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8715,7 +8734,7 @@
       </c>
       <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>72</v>
@@ -8733,7 +8752,7 @@
         <v>72</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>73</v>
@@ -8748,7 +8767,7 @@
         <v>93</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>72</v>
@@ -8756,23 +8775,23 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>72</v>
@@ -8784,16 +8803,16 @@
         <v>72</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -8823,7 +8842,7 @@
       </c>
       <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>72</v>
@@ -8841,7 +8860,7 @@
         <v>72</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>73</v>
@@ -8856,7 +8875,7 @@
         <v>93</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>72</v>
@@ -8864,13 +8883,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>72</v>
@@ -8892,16 +8911,16 @@
         <v>72</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8931,7 +8950,7 @@
       </c>
       <c r="Y64" s="2"/>
       <c r="Z64" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>72</v>
@@ -8949,7 +8968,7 @@
         <v>72</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>73</v>
@@ -8964,7 +8983,7 @@
         <v>93</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>72</v>
@@ -8972,13 +8991,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>72</v>
@@ -9000,16 +9019,16 @@
         <v>72</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9039,7 +9058,7 @@
       </c>
       <c r="Y65" s="2"/>
       <c r="Z65" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>72</v>
@@ -9057,7 +9076,7 @@
         <v>72</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>73</v>
@@ -9072,7 +9091,7 @@
         <v>93</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>72</v>
@@ -9080,13 +9099,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>72</v>
@@ -9108,16 +9127,16 @@
         <v>72</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9147,7 +9166,7 @@
       </c>
       <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>72</v>
@@ -9165,7 +9184,7 @@
         <v>72</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>73</v>
@@ -9180,7 +9199,7 @@
         <v>93</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>72</v>
@@ -9188,13 +9207,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>72</v>
@@ -9216,16 +9235,16 @@
         <v>72</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9255,7 +9274,7 @@
       </c>
       <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>72</v>
@@ -9273,7 +9292,7 @@
         <v>72</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>73</v>
@@ -9288,7 +9307,7 @@
         <v>93</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>72</v>
@@ -9296,13 +9315,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>72</v>
@@ -9312,7 +9331,7 @@
         <v>73</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>72</v>
@@ -9324,16 +9343,16 @@
         <v>72</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9363,7 +9382,7 @@
       </c>
       <c r="Y68" s="2"/>
       <c r="Z68" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>72</v>
@@ -9381,7 +9400,7 @@
         <v>72</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>73</v>
@@ -9396,7 +9415,7 @@
         <v>93</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>72</v>
@@ -9404,13 +9423,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>72</v>
@@ -9420,7 +9439,7 @@
         <v>73</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>72</v>
@@ -9432,16 +9451,16 @@
         <v>72</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9471,7 +9490,7 @@
       </c>
       <c r="Y69" s="2"/>
       <c r="Z69" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>72</v>
@@ -9489,7 +9508,7 @@
         <v>72</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>73</v>
@@ -9504,7 +9523,7 @@
         <v>93</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>72</v>
@@ -9512,13 +9531,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>72</v>
@@ -9540,16 +9559,16 @@
         <v>72</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9579,7 +9598,7 @@
       </c>
       <c r="Y70" s="2"/>
       <c r="Z70" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>72</v>
@@ -9597,7 +9616,7 @@
         <v>72</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>73</v>
@@ -9612,7 +9631,7 @@
         <v>93</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>72</v>
@@ -9620,13 +9639,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>72</v>
@@ -9648,16 +9667,16 @@
         <v>72</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9687,7 +9706,7 @@
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>72</v>
@@ -9705,7 +9724,7 @@
         <v>72</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>73</v>
@@ -9720,7 +9739,7 @@
         <v>93</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>72</v>
@@ -9728,13 +9747,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>72</v>
@@ -9744,7 +9763,7 @@
         <v>73</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>72</v>
@@ -9756,16 +9775,16 @@
         <v>72</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -9795,7 +9814,7 @@
       </c>
       <c r="Y72" s="2"/>
       <c r="Z72" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>72</v>
@@ -9813,7 +9832,7 @@
         <v>72</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>73</v>
@@ -9828,7 +9847,7 @@
         <v>93</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>72</v>
@@ -9836,12 +9855,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="D73" t="s" s="2">
         <v>72</v>
       </c>
@@ -9850,7 +9871,7 @@
         <v>73</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>72</v>
@@ -9862,16 +9883,16 @@
         <v>72</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>465</v>
+        <v>419</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>466</v>
+        <v>420</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -9897,13 +9918,11 @@
         <v>72</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="Y73" s="2"/>
       <c r="Z73" t="s" s="2">
-        <v>170</v>
+        <v>468</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>72</v>
@@ -9921,7 +9940,7 @@
         <v>72</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>463</v>
+        <v>417</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>73</v>
@@ -9936,7 +9955,7 @@
         <v>93</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>467</v>
+        <v>416</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>72</v>
@@ -9944,10 +9963,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9970,16 +9989,16 @@
         <v>72</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>265</v>
+        <v>472</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10005,13 +10024,13 @@
         <v>72</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>471</v>
+        <v>169</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>472</v>
+        <v>170</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>72</v>
@@ -10029,7 +10048,7 @@
         <v>72</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>73</v>
@@ -10044,7 +10063,7 @@
         <v>93</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>410</v>
+        <v>473</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>72</v>
@@ -10052,10 +10071,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10066,7 +10085,7 @@
         <v>73</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>72</v>
@@ -10078,15 +10097,17 @@
         <v>72</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>72</v>
@@ -10111,13 +10132,13 @@
         <v>72</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>72</v>
+        <v>477</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>72</v>
+        <v>478</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>72</v>
@@ -10135,13 +10156,13 @@
         <v>72</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>92</v>
@@ -10150,7 +10171,7 @@
         <v>93</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>72</v>
@@ -10158,10 +10179,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10184,17 +10205,15 @@
         <v>72</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>385</v>
+        <v>243</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>479</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>72</v>
@@ -10243,13 +10262,13 @@
         <v>72</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>92</v>
@@ -10258,7 +10277,7 @@
         <v>93</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>480</v>
+        <v>416</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>72</v>
@@ -10266,10 +10285,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10292,15 +10311,17 @@
         <v>72</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>96</v>
+        <v>391</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>97</v>
+        <v>483</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>72</v>
@@ -10349,22 +10370,22 @@
         <v>72</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>99</v>
+        <v>482</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>100</v>
+        <v>486</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>72</v>
@@ -10372,21 +10393,21 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>72</v>
@@ -10398,17 +10419,15 @@
         <v>72</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>72</v>
@@ -10445,34 +10464,34 @@
         <v>72</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>72</v>
@@ -10480,23 +10499,21 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="C79" t="s" s="2">
-        <v>484</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>72</v>
@@ -10508,15 +10525,17 @@
         <v>72</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>485</v>
+        <v>103</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>486</v>
+        <v>104</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>72</v>
@@ -10553,16 +10572,16 @@
         <v>72</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>110</v>
@@ -10580,7 +10599,7 @@
         <v>111</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>72</v>
@@ -10588,13 +10607,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B80" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="B80" t="s" s="2">
-        <v>482</v>
-      </c>
       <c r="C80" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>72</v>
@@ -10616,13 +10635,13 @@
         <v>72</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10696,13 +10715,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>72</v>
@@ -10724,13 +10743,13 @@
         <v>72</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10804,46 +10823,44 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>500</v>
+      </c>
       <c r="D82" t="s" s="2">
-        <v>391</v>
+        <v>72</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>103</v>
+        <v>501</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>392</v>
+        <v>502</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>72</v>
       </c>
@@ -10891,7 +10908,7 @@
         <v>72</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>394</v>
+        <v>110</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>73</v>
@@ -10906,7 +10923,7 @@
         <v>111</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>72</v>
@@ -10914,14 +10931,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>72</v>
+        <v>397</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -10934,24 +10951,26 @@
         <v>72</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>500</v>
+        <v>398</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>501</v>
+        <v>399</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>72</v>
       </c>
@@ -10975,13 +10994,13 @@
         <v>72</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>502</v>
+        <v>72</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>503</v>
+        <v>72</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>72</v>
@@ -10999,7 +11018,7 @@
         <v>72</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>499</v>
+        <v>400</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>73</v>
@@ -11011,10 +11030,10 @@
         <v>92</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>480</v>
+        <v>94</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>72</v>
@@ -11022,10 +11041,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11036,7 +11055,7 @@
         <v>73</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>72</v>
@@ -11048,15 +11067,17 @@
         <v>72</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>238</v>
+        <v>164</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>507</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>72</v>
@@ -11081,13 +11102,13 @@
         <v>72</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>72</v>
+        <v>508</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>72</v>
+        <v>509</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>72</v>
@@ -11105,13 +11126,13 @@
         <v>72</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>92</v>
@@ -11120,7 +11141,7 @@
         <v>93</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>72</v>
@@ -11128,10 +11149,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11154,17 +11175,15 @@
         <v>72</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>508</v>
+        <v>243</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>511</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>72</v>
@@ -11213,7 +11232,7 @@
         <v>72</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>73</v>
@@ -11228,7 +11247,7 @@
         <v>93</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>72</v>
@@ -11236,10 +11255,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11262,16 +11281,16 @@
         <v>72</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -11321,7 +11340,7 @@
         <v>72</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>73</v>
@@ -11336,7 +11355,7 @@
         <v>93</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>72</v>
@@ -11344,10 +11363,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11358,7 +11377,7 @@
         <v>73</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>72</v>
@@ -11370,15 +11389,17 @@
         <v>72</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>385</v>
+        <v>514</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="M87" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="N87" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>72</v>
@@ -11415,23 +11436,25 @@
         <v>72</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AC87" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AD87" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>92</v>
@@ -11440,7 +11463,7 @@
         <v>93</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>72</v>
@@ -11448,10 +11471,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11462,7 +11485,7 @@
         <v>73</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>72</v>
@@ -11474,13 +11497,13 @@
         <v>72</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>96</v>
+        <v>391</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>97</v>
+        <v>522</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>98</v>
+        <v>523</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11519,34 +11542,32 @@
         <v>72</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="AC88" s="2"/>
       <c r="AD88" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>99</v>
+        <v>521</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>100</v>
+        <v>486</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>72</v>
@@ -11554,21 +11575,21 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>72</v>
@@ -11580,17 +11601,15 @@
         <v>72</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>72</v>
@@ -11627,34 +11646,34 @@
         <v>72</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>72</v>
@@ -11662,14 +11681,14 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>391</v>
+        <v>102</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -11682,26 +11701,24 @@
         <v>72</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K90" t="s" s="2">
         <v>103</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>392</v>
+        <v>104</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>393</v>
+        <v>105</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="O90" t="s" s="2">
-        <v>229</v>
-      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>72</v>
       </c>
@@ -11737,19 +11754,19 @@
         <v>72</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD90" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>394</v>
+        <v>110</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>73</v>
@@ -11772,44 +11789,46 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>72</v>
+        <v>397</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>522</v>
+        <v>398</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>523</v>
+        <v>399</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O91" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>72</v>
       </c>
@@ -11857,22 +11876,22 @@
         <v>72</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>521</v>
+        <v>400</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>72</v>
@@ -11880,10 +11899,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11891,7 +11910,7 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>80</v>
@@ -11906,16 +11925,16 @@
         <v>72</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>366</v>
+        <v>96</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -11965,10 +11984,10 @@
         <v>72</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>80</v>
@@ -11977,10 +11996,10 @@
         <v>92</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>371</v>
+        <v>93</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>480</v>
+        <v>100</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>72</v>
@@ -11988,14 +12007,12 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="C93" t="s" s="2">
-        <v>528</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
         <v>72</v>
       </c>
@@ -12016,15 +12033,17 @@
         <v>72</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>532</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>72</v>
@@ -12073,22 +12092,22 @@
         <v>72</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>93</v>
+        <v>377</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>72</v>
@@ -12096,12 +12115,14 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="C94" s="2"/>
+        <v>521</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>534</v>
+      </c>
       <c r="D94" t="s" s="2">
         <v>72</v>
       </c>
@@ -12122,13 +12143,13 @@
         <v>72</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>96</v>
+        <v>391</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>97</v>
+        <v>535</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>98</v>
+        <v>523</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12179,22 +12200,22 @@
         <v>72</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>99</v>
+        <v>521</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>100</v>
+        <v>486</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>72</v>
@@ -12202,21 +12223,21 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>72</v>
@@ -12228,17 +12249,15 @@
         <v>72</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>72</v>
@@ -12275,34 +12294,34 @@
         <v>72</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC95" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD95" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>72</v>
@@ -12310,14 +12329,14 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>391</v>
+        <v>102</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -12330,26 +12349,24 @@
         <v>72</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K96" t="s" s="2">
         <v>103</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>392</v>
+        <v>104</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>393</v>
+        <v>105</v>
       </c>
       <c r="N96" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="O96" t="s" s="2">
-        <v>229</v>
-      </c>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>72</v>
       </c>
@@ -12385,19 +12402,19 @@
         <v>72</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC96" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD96" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>394</v>
+        <v>110</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>73</v>
@@ -12420,44 +12437,46 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>72</v>
+        <v>397</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>522</v>
+        <v>398</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>523</v>
+        <v>399</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O97" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>72</v>
       </c>
@@ -12505,22 +12524,22 @@
         <v>72</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>521</v>
+        <v>400</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>72</v>
@@ -12528,10 +12547,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12539,7 +12558,7 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>80</v>
@@ -12554,16 +12573,16 @@
         <v>72</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>366</v>
+        <v>96</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -12613,10 +12632,10 @@
         <v>72</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>80</v>
@@ -12625,10 +12644,10 @@
         <v>92</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>371</v>
+        <v>93</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>480</v>
+        <v>100</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>72</v>
@@ -12636,14 +12655,12 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="C99" t="s" s="2">
-        <v>536</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
         <v>72</v>
       </c>
@@ -12664,15 +12681,17 @@
         <v>72</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N99" s="2"/>
+        <v>532</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>72</v>
@@ -12721,22 +12740,22 @@
         <v>72</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>93</v>
+        <v>377</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>72</v>
@@ -12744,12 +12763,14 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="C100" s="2"/>
+        <v>521</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>542</v>
+      </c>
       <c r="D100" t="s" s="2">
         <v>72</v>
       </c>
@@ -12770,13 +12791,13 @@
         <v>72</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>96</v>
+        <v>391</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>97</v>
+        <v>543</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>98</v>
+        <v>523</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -12827,22 +12848,22 @@
         <v>72</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>99</v>
+        <v>521</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>100</v>
+        <v>486</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>72</v>
@@ -12850,21 +12871,21 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>72</v>
@@ -12876,17 +12897,15 @@
         <v>72</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>72</v>
@@ -12923,34 +12942,34 @@
         <v>72</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC101" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD101" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>72</v>
@@ -12958,14 +12977,14 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>391</v>
+        <v>102</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -12978,26 +12997,24 @@
         <v>72</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>103</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>392</v>
+        <v>104</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>393</v>
+        <v>105</v>
       </c>
       <c r="N102" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="O102" t="s" s="2">
-        <v>229</v>
-      </c>
+      <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>72</v>
       </c>
@@ -13033,19 +13050,19 @@
         <v>72</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC102" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD102" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>394</v>
+        <v>110</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>73</v>
@@ -13068,44 +13085,46 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>72</v>
+        <v>397</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>522</v>
+        <v>398</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>523</v>
+        <v>399</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O103" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="P103" t="s" s="2">
         <v>72</v>
       </c>
@@ -13153,22 +13172,22 @@
         <v>72</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>521</v>
+        <v>400</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>72</v>
@@ -13176,10 +13195,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13187,7 +13206,7 @@
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>80</v>
@@ -13202,16 +13221,16 @@
         <v>72</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>366</v>
+        <v>96</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -13261,10 +13280,10 @@
         <v>72</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>80</v>
@@ -13273,10 +13292,10 @@
         <v>92</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>371</v>
+        <v>93</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>480</v>
+        <v>100</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>72</v>
@@ -13284,10 +13303,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13310,16 +13329,16 @@
         <v>72</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>96</v>
+        <v>372</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>291</v>
+        <v>375</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -13369,7 +13388,7 @@
         <v>72</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>73</v>
@@ -13381,10 +13400,10 @@
         <v>92</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>93</v>
+        <v>377</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>72</v>
@@ -13392,10 +13411,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13406,7 +13425,7 @@
         <v>73</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>72</v>
@@ -13418,16 +13437,16 @@
         <v>72</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>547</v>
+        <v>96</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -13477,24 +13496,132 @@
         <v>72</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>250</v>
+        <v>93</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>550</v>
+        <v>486</v>
       </c>
       <c r="AL106" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="O107" s="2"/>
+      <c r="P107" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AL107" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:30:28+00:00</t>
+    <t>2023-03-27T14:49:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:49:55+00:00</t>
+    <t>2023-03-28T07:26:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T07:26:22+00:00</t>
+    <t>2023-03-28T08:50:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T08:50:23+00:00</t>
+    <t>2023-03-28T13:00:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T13:00:55+00:00</t>
+    <t>2023-03-29T15:26:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T15:26:54+00:00</t>
+    <t>2023-03-30T07:20:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T07:20:01+00:00</t>
+    <t>2023-03-30T08:12:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T08:12:51+00:00</t>
+    <t>2023-03-31T06:57:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-healthcareservice</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T06:57:00+00:00</t>
+    <t>2023-04-05T09:21:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -617,7 +617,7 @@
     <t>ror-territorial-division</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-territorial-division}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-territorial-division}
 </t>
   </si>
   <si>
@@ -634,7 +634,7 @@
     <t>ror-healthcareservice-sensitive-unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-healthcareservice-sensitive-unit}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-sensitive-unit}
 </t>
   </si>
   <si>
@@ -650,7 +650,7 @@
     <t>ror-healthcareservice-no-consent-habilitation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-healthcareservice-no-consent-habilitation}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-no-consent-habilitation}
 </t>
   </si>
   <si>
@@ -666,7 +666,7 @@
     <t>ror-healthcareservice-psychiatric-sector</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-healthcareservice-psychiatric-sector}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-psychiatric-sector}
 </t>
   </si>
   <si>
@@ -682,7 +682,7 @@
     <t>RORCalculatedDistance</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-calculated-distance}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-calculated-distance}
 </t>
   </si>
   <si>
@@ -695,7 +695,7 @@
     <t>ror-healthcareservice-patient-type</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-healthcareservice-patient-type}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-patient-type}
 </t>
   </si>
   <si>
@@ -711,7 +711,7 @@
     <t>ror-healthcareservice-contact</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-healthcareservice-contact}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-contact}
 </t>
   </si>
   <si>
@@ -727,14 +727,14 @@
     <t>ror-meta-creation-date</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-meta-creation-date}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-meta-creation-date}
 </t>
   </si>
   <si>
     <t>dateCreation (Metadonnee)</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR qui correspond à la date de création (dans le ROR régionnal) présente dans les métadonnées.</t>
+    <t>Extension créée dans le cadre du ROR qui correspond à la date de création (dans le ROR régional) présente dans les métadonnées.</t>
   </si>
   <si>
     <t>HealthcareService.modifierExtension</t>
@@ -1042,7 +1042,7 @@
     <t>ror-telecom-communication-channel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-communication-channel}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-communication-channel}
 </t>
   </si>
   <si>
@@ -1058,7 +1058,7 @@
     <t>ror-telecom-usage</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-usage}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-usage}
 </t>
   </si>
   <si>
@@ -1074,7 +1074,7 @@
     <t>ror-telecom-confidentiality-level</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-confidentiality-level}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-confidentiality-level}
 </t>
   </si>
   <si>
@@ -1542,7 +1542,7 @@
     <t>ror-available-time-type-of-time</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-available-time-type-of-time}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-available-time-type-of-time}
 </t>
   </si>
   <si>
@@ -1558,7 +1558,7 @@
     <t>ror-available-time-effective-opening-closing-date</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-available-time-effective-opening-closing-date}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-available-time-effective-opening-closing-date}
 </t>
   </si>
   <si>
@@ -1574,7 +1574,7 @@
     <t>ror-available-time-number-days-of-week</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-available-time-number-days-of-week}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-available-time-number-days-of-week}
 </t>
   </si>
   <si>
@@ -2056,7 +2056,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="115.20703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="112.875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T09:21:20+00:00</t>
+    <t>2023-04-07T12:46:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -686,7 +686,7 @@
 </t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR</t>
+    <t>Extension créée dans le cadre du ROR pour transporter la distance calculée</t>
   </si>
   <si>
     <t>HealthcareService.extension:ror-healthcareservice-patient-type</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T12:46:16+00:00</t>
+    <t>2023-04-07T13:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T13:22:07+00:00</t>
+    <t>2023-04-07T13:37:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T13:37:24+00:00</t>
+    <t>2023-04-07T14:29:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T14:29:23+00:00</t>
+    <t>2023-04-07T14:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T14:34:36+00:00</t>
+    <t>2023-04-07T15:03:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T15:03:36+00:00</t>
+    <t>2023-04-11T08:38:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:38:10+00:00</t>
+    <t>2023-04-11T08:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Profil créé dans le cadre du ROR pour décrire les prestations que peut réaliser une structure et qui permettent de répondre au besoin de santé d'une personne </t>
+    <t>Profil créé dans le cadre du ROR pour décrire les prestations que peut réaliser une structure et qui permettent de répondre au besoin de santé d'une personne</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1062,7 +1062,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">utilisation (Telecommunication) : Utilisation du canal de communication </t>
+    <t>utilisation (Telecommunication) : Utilisation du canal de communication</t>
   </si>
   <si>
     <t xml:space="preserve">Extension créée dans le cadre du ROR qui précise l'utilisation du canal de communication </t>
@@ -1458,7 +1458,7 @@
     <t>expertiseLevel</t>
   </si>
   <si>
-    <t xml:space="preserve">niveauExpertise (OffreOperationnelle) : Niveau de ressources humaines et matérielles engagées dans la réalisation de l'offre </t>
+    <t>niveauExpertise (OffreOperationnelle) : Niveau de ressources humaines et matérielles engagées dans la réalisation de l'offre</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J227-NiveauExpertise-ROR/FHIR/JDV-J227-NiveauExpertise-ROR</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:56:12+00:00</t>
+    <t>2023-04-11T09:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:15:18+00:00</t>
+    <t>2023-04-11T09:20:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:20:01+00:00</t>
+    <t>2023-04-11T09:20:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-healthcareservice.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:20:36+00:00</t>
+    <t>2023-04-11T09:21:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
